--- a/ILR_TestSuite/New Business/SalesAppBase/TestResults.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC8C577-4C09-4D18-9B1A-312E07A19148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964E0C6-0974-4B45-B708-BCB1CEBA79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2471D625-0710-4FBE-ACB3-3F6B12021DD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2471D625-0710-4FBE-ACB3-3F6B12021DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Safrican Serenity Funeral" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t>Product</t>
   </si>
@@ -61,30 +61,6 @@
     <t>Validations</t>
   </si>
   <si>
-    <t>PLA and Spouse = R60,000</t>
-  </si>
-  <si>
-    <t>Children  &lt;6 years = R10,000</t>
-  </si>
-  <si>
-    <t>Children =&gt;6 and &lt;14 years = 30,000</t>
-  </si>
-  <si>
-    <t>Children &gt;14 years = R60,000</t>
-  </si>
-  <si>
-    <t>Wider Family 0 and &lt;6 years = R10,000</t>
-  </si>
-  <si>
-    <t>Wider Family =&gt;6 and &lt;14 years = R30,000</t>
-  </si>
-  <si>
-    <t>Wider Family =&gt;14 years = R50,000</t>
-  </si>
-  <si>
-    <t>Parents =&gt;26 years = R50,000</t>
-  </si>
-  <si>
     <t>Test Failed</t>
   </si>
   <si>
@@ -104,6 +80,22 @@
   </si>
   <si>
     <t xml:space="preserve">Expected Result </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Total</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -390,6 +382,690 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF6FD2F5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -424,690 +1100,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF6FD2F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1128,37 +1120,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83523345-6D28-4B67-BBC5-84DE5A7E4455}" name="Table2" displayName="Table2" ref="A1:I9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83523345-6D28-4B67-BBC5-84DE5A7E4455}" name="Table2" displayName="Table2" ref="A1:I9" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:I9" xr:uid="{83523345-6D28-4B67-BBC5-84DE5A7E4455}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5F5B8869-6F4C-461E-B3D3-6E79BF768CF5}" name="Scenario" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{5F2D3346-250D-40D4-A91A-C4519168B3AE}" name="Product" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{45E3A9E0-E087-485D-A135-CBB60B7C7218}" name="Functionality" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{46102D33-67B6-430A-A132-21A58FCC378F}" name="Action" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B9B079B2-4A68-44CC-BD72-2B808C3ECF1F}" name="Scenario detail" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6D0A02EA-CF30-4AFD-BDAD-E1B4A95B288B}" name="Expecteced Result " dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B09C0974-0B77-4C86-BA89-EB4E45B9D5F2}" name="Comment" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{3954551C-3C63-474B-AD73-3ABBAC0F8FF2}" name="Test Result" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{87EE3397-3125-44A6-A380-C0D51166BFEC}" name="Test__Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5F5B8869-6F4C-461E-B3D3-6E79BF768CF5}" name="Scenario" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{5F2D3346-250D-40D4-A91A-C4519168B3AE}" name="Product" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{45E3A9E0-E087-485D-A135-CBB60B7C7218}" name="Functionality" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{46102D33-67B6-430A-A132-21A58FCC378F}" name="Action" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B9B079B2-4A68-44CC-BD72-2B808C3ECF1F}" name="Scenario detail" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{6D0A02EA-CF30-4AFD-BDAD-E1B4A95B288B}" name="Expecteced Result " dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{B09C0974-0B77-4C86-BA89-EB4E45B9D5F2}" name="Comment" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{3954551C-3C63-474B-AD73-3ABBAC0F8FF2}" name="Test Result" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{87EE3397-3125-44A6-A380-C0D51166BFEC}" name="Test__Date" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8777D316-F117-4D67-A941-2939F94E8516}" name="Table1" displayName="Table1" ref="A1:J9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8777D316-F117-4D67-A941-2939F94E8516}" name="Table1" displayName="Table1" ref="A1:J9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J9" xr:uid="{8777D316-F117-4D67-A941-2939F94E8516}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{25FA51D1-7DB2-4CE7-899A-9D9F7E519758}" name="Scenario" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{45E166F6-4134-49F9-8138-E88F8F6371A2}" name="Product" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{367BABCE-EEA7-4880-A299-A53C71F28209}" name="Functionality" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{6AD19CA7-9B79-4E6E-B41D-77E8CB516256}" name="Action" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{81583546-2462-4058-BFCF-D609B23EA583}" name="Scenario2" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{1B71DDEB-93D0-4F04-B7B4-C6224CBDFCB3}" name="Scenario detail" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{B5E45335-05A0-4953-9AF1-EB9D1CD56315}" name="Expected Result " dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{1A08C9E9-644A-4C09-9FEE-7F1FFAC691E2}" name="Comment" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{FD16FACA-5E97-43C9-BBC6-D68964F51532}" name="Test Result" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{FC634989-9D03-42B1-9C0B-76252A72B6DE}" name="Test__Date" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{25FA51D1-7DB2-4CE7-899A-9D9F7E519758}" name="Scenario" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{45E166F6-4134-49F9-8138-E88F8F6371A2}" name="Product" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{367BABCE-EEA7-4880-A299-A53C71F28209}" name="Functionality" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6AD19CA7-9B79-4E6E-B41D-77E8CB516256}" name="Action" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{81583546-2462-4058-BFCF-D609B23EA583}" name="Scenario2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1B71DDEB-93D0-4F04-B7B4-C6224CBDFCB3}" name="Scenario detail" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B5E45335-05A0-4953-9AF1-EB9D1CD56315}" name="Expected Result " dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{1A08C9E9-644A-4C09-9FEE-7F1FFAC691E2}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{FD16FACA-5E97-43C9-BBC6-D68964F51532}" name="Test Result" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{FC634989-9D03-42B1-9C0B-76252A72B6DE}" name="Test__Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1461,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C706A8-A851-4CE3-B18F-030516FA1AC0}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,7 +1471,7 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
@@ -1496,25 +1488,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1525,17 +1520,16 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="10"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1546,15 +1540,13 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1565,15 +1557,13 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1584,15 +1574,13 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -1603,15 +1591,13 @@
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -1622,15 +1608,13 @@
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -1641,15 +1625,13 @@
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -1660,9 +1642,7 @@
       <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
@@ -1679,24 +1659,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E6F051-E149-46CA-AE26-1F7A007EA237}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" customWidth="1"/>
     <col min="10" max="10" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -1710,31 +1690,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1746,17 +1729,16 @@
         <v>7</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
       <c r="J2" s="10"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1768,15 +1750,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1788,15 +1768,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1808,15 +1786,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -1828,15 +1804,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -1848,15 +1822,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -1868,15 +1840,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -1888,9 +1858,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="21"/>
@@ -1898,8 +1866,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>